--- a/www/terminologies/ValueSet-JDV-J183-Diplome-EPARS.xlsx
+++ b/www/terminologies/ValueSet-JDV-J183-Diplome-EPARS.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="164">
   <si>
     <t>Property</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -655,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -755,21 +761,29 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -790,42 +804,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>38</v>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -847,50 +861,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B3" t="s" s="2">
         <v>106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -912,34 +926,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -961,106 +975,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B3" t="s" s="2">
         <v>114</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1082,35 +1096,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>131</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1131,42 +1145,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>38</v>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1188,34 +1202,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1237,34 +1251,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>131</v>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1286,42 +1300,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>38</v>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1343,34 +1357,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1392,74 +1406,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B3" t="s" s="2">
         <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1481,34 +1495,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>131</v>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1530,42 +1544,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>38</v>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1587,34 +1601,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1636,34 +1650,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1685,50 +1699,148 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>38</v>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>43</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B2" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1742,132 +1854,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>46</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>46</v>
+      <c r="B2" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1889,98 +1903,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B3" t="s" s="2">
         <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2002,34 +2016,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2051,130 +2065,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B3" t="s" s="2">
         <v>72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2196,34 +2210,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2245,34 +2259,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-JDV-J183-Diplome-EPARS.xlsx
+++ b/www/terminologies/ValueSet-JDV-J183-Diplome-EPARS.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250917120000</t>
+    <t>20251222120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:00:00+01:00</t>
+    <t>2025-12-22T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,31 +174,31 @@
     <t>DIP324</t>
   </si>
   <si>
-    <t>Licence + Master mention clinique, psychopatho et psycho santé + Attest stage</t>
+    <t>Licence + Master mention psychologie clinique, psychopatho et psycho santé + Attest stage</t>
   </si>
   <si>
     <t>DIP325</t>
   </si>
   <si>
-    <t>Licence + Master mention sociale, du travail et des organisations + Attest stage</t>
+    <t>Licence + Master mention psychologie sociale, du travail et des organisations + Attest stage</t>
   </si>
   <si>
     <t>DIP326</t>
   </si>
   <si>
-    <t>Licence + Master mention éducation et de la formation + Attest stage</t>
+    <t>Licence + Master mention psychologie de l'éducation et de la formation + Attest stage</t>
   </si>
   <si>
     <t>DIP327</t>
   </si>
   <si>
-    <t>Licence + Master mention psychopatho clinique psychanalytique + Attest stage</t>
+    <t>Licence + Master mention psychologie: psychopatho clinique psychanalytique + Attest stage</t>
   </si>
   <si>
     <t>DIP328</t>
   </si>
   <si>
-    <t>Master de Psychanalyse</t>
+    <t>Diplôme de niveau Master en psychanalyse</t>
   </si>
   <si>
     <t>DIP329</t>
